--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl13-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl13-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Cxcr3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,45 +540,45 @@
         <v>0.72367</v>
       </c>
       <c r="I2">
-        <v>0.1061939916097839</v>
+        <v>0.2038054651530871</v>
       </c>
       <c r="J2">
-        <v>0.1061939916097839</v>
+        <v>0.2038054651530872</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.863797</v>
+        <v>1.888791333333333</v>
       </c>
       <c r="N2">
-        <v>5.591391000000001</v>
+        <v>5.666374</v>
       </c>
       <c r="O2">
-        <v>0.5455000708290748</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.5455000708290748</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.4495913249966667</v>
+        <v>0.4556205413977779</v>
       </c>
       <c r="R2">
-        <v>4.046321924970001</v>
+        <v>4.100584872580001</v>
       </c>
       <c r="S2">
-        <v>0.05792882994475931</v>
+        <v>0.2038054651530871</v>
       </c>
       <c r="T2">
-        <v>0.05792882994475931</v>
+        <v>0.2038054651530872</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -593,22 +590,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2412233333333333</v>
+        <v>0.133983</v>
       </c>
       <c r="H3">
-        <v>0.72367</v>
+        <v>0.401949</v>
       </c>
       <c r="I3">
-        <v>0.1061939916097839</v>
+        <v>0.1131999432238703</v>
       </c>
       <c r="J3">
-        <v>0.1061939916097839</v>
+        <v>0.1131999432238703</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.552879</v>
+        <v>1.888791333333333</v>
       </c>
       <c r="N3">
-        <v>4.658637000000001</v>
+        <v>5.666374</v>
       </c>
       <c r="O3">
-        <v>0.4544999291709252</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.4544999291709252</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.3745906486433334</v>
+        <v>0.253065929214</v>
       </c>
       <c r="R3">
-        <v>3.371315837790001</v>
+        <v>2.277593362926</v>
       </c>
       <c r="S3">
-        <v>0.04826516166502462</v>
+        <v>0.1131999432238703</v>
       </c>
       <c r="T3">
-        <v>0.04826516166502463</v>
+        <v>0.1131999432238703</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,241 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4532080000000001</v>
+        <v>0.8083896666666667</v>
       </c>
       <c r="H4">
-        <v>1.359624</v>
+        <v>2.425169</v>
       </c>
       <c r="I4">
-        <v>0.1995162154690133</v>
+        <v>0.6829945916230425</v>
       </c>
       <c r="J4">
-        <v>0.1995162154690133</v>
+        <v>0.6829945916230425</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.863797</v>
+        <v>1.888791333333333</v>
       </c>
       <c r="N4">
-        <v>5.591391000000001</v>
+        <v>5.666374</v>
       </c>
       <c r="O4">
-        <v>0.5455000708290748</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.5455000708290748</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.8446877107760001</v>
+        <v>1.526879396356222</v>
       </c>
       <c r="R4">
-        <v>7.602189396984002</v>
+        <v>13.741914567206</v>
       </c>
       <c r="S4">
-        <v>0.1088361096698957</v>
+        <v>0.6829945916230425</v>
       </c>
       <c r="T4">
-        <v>0.1088361096698957</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G5">
-        <v>0.4532080000000001</v>
-      </c>
-      <c r="H5">
-        <v>1.359624</v>
-      </c>
-      <c r="I5">
-        <v>0.1995162154690133</v>
-      </c>
-      <c r="J5">
-        <v>0.1995162154690133</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.552879</v>
-      </c>
-      <c r="N5">
-        <v>4.658637000000001</v>
-      </c>
-      <c r="O5">
-        <v>0.4544999291709252</v>
-      </c>
-      <c r="P5">
-        <v>0.4544999291709252</v>
-      </c>
-      <c r="Q5">
-        <v>0.7037771858320001</v>
-      </c>
-      <c r="R5">
-        <v>6.333994672488002</v>
-      </c>
-      <c r="S5">
-        <v>0.0906801057991176</v>
-      </c>
-      <c r="T5">
-        <v>0.09068010579911762</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>1.577103333333333</v>
-      </c>
-      <c r="H6">
-        <v>4.73131</v>
-      </c>
-      <c r="I6">
-        <v>0.6942897929212027</v>
-      </c>
-      <c r="J6">
-        <v>0.6942897929212027</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>1.863797</v>
-      </c>
-      <c r="N6">
-        <v>5.591391000000001</v>
-      </c>
-      <c r="O6">
-        <v>0.5455000708290748</v>
-      </c>
-      <c r="P6">
-        <v>0.5455000708290748</v>
-      </c>
-      <c r="Q6">
-        <v>2.939400461356667</v>
-      </c>
-      <c r="R6">
-        <v>26.45460415221</v>
-      </c>
-      <c r="S6">
-        <v>0.3787351312144198</v>
-      </c>
-      <c r="T6">
-        <v>0.3787351312144198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>1.577103333333333</v>
-      </c>
-      <c r="H7">
-        <v>4.73131</v>
-      </c>
-      <c r="I7">
-        <v>0.6942897929212027</v>
-      </c>
-      <c r="J7">
-        <v>0.6942897929212027</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.552879</v>
-      </c>
-      <c r="N7">
-        <v>4.658637000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.4544999291709252</v>
-      </c>
-      <c r="P7">
-        <v>0.4544999291709252</v>
-      </c>
-      <c r="Q7">
-        <v>2.449050647163333</v>
-      </c>
-      <c r="R7">
-        <v>22.04145582447</v>
-      </c>
-      <c r="S7">
-        <v>0.315554661706783</v>
-      </c>
-      <c r="T7">
-        <v>0.315554661706783</v>
+        <v>0.6829945916230425</v>
       </c>
     </row>
   </sheetData>
